--- a/Output_Files/Sediment_Volume/pond_summary_sed_vol_112023.xlsx
+++ b/Output_Files/Sediment_Volume/pond_summary_sed_vol_112023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,26 +622,426 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Longhouse</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.1025195158479921</v>
+      </c>
+      <c r="C11">
+        <v>188.7570767050665</v>
+      </c>
+      <c r="D11">
+        <v>0.08420828898507468</v>
+      </c>
+      <c r="E11">
+        <v>155.0427772866765</v>
+      </c>
+      <c r="F11">
+        <v>0.1278976681976823</v>
+      </c>
+      <c r="G11">
+        <v>235.4828713996689</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ecovillage</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.1348450252819703</v>
+      </c>
+      <c r="C12">
+        <v>372.2694892283711</v>
+      </c>
+      <c r="D12">
+        <v>0.1244415980626388</v>
+      </c>
+      <c r="E12">
+        <v>343.548529526175</v>
+      </c>
+      <c r="F12">
+        <v>0.1899959656507531</v>
+      </c>
+      <c r="G12">
+        <v>524.5258469146805</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dybowski</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.115747528122293</v>
+      </c>
+      <c r="C13">
+        <v>990.2284905544002</v>
+      </c>
+      <c r="D13">
+        <v>0.08673960346418866</v>
+      </c>
+      <c r="E13">
+        <v>742.0635930892761</v>
+      </c>
+      <c r="F13">
+        <v>0.1363524322839587</v>
+      </c>
+      <c r="G13">
+        <v>1166.504938760421</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Applegate</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>0.09223004654240162</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>907.2944184196748</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>0.05792972845903114</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>569.8719805728695</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>0.1097260936345879</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>1079.408241043092</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mt_Pleasant_NE</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.1487527382284713</v>
+      </c>
+      <c r="C15">
+        <v>311.3195181016955</v>
+      </c>
+      <c r="D15">
+        <v>0.1610937485210948</v>
+      </c>
+      <c r="E15">
+        <v>337.1475964479686</v>
+      </c>
+      <c r="F15">
+        <v>0.2481342183373835</v>
+      </c>
+      <c r="G15">
+        <v>519.3116187124391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Barber</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.09643847455114662</v>
+      </c>
+      <c r="C16">
+        <v>380.2995734480452</v>
+      </c>
+      <c r="D16">
+        <v>0.09579305281767726</v>
+      </c>
+      <c r="E16">
+        <v>377.754389992221</v>
+      </c>
+      <c r="F16">
+        <v>0.1364999886870055</v>
+      </c>
+      <c r="G16">
+        <v>538.2798485245637</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Stick_and_Stone</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.1775323769983849</v>
+      </c>
+      <c r="C17">
+        <v>242.2927576465515</v>
+      </c>
+      <c r="D17">
+        <v>0.1568720582823148</v>
+      </c>
+      <c r="E17">
+        <v>214.0959538848421</v>
+      </c>
+      <c r="F17">
+        <v>0.2394054310267563</v>
+      </c>
+      <c r="G17">
+        <v>326.7359062035303</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>English_Shallow</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0.210168073915206</v>
+      </c>
+      <c r="C18">
+        <v>1809.131503411886</v>
+      </c>
+      <c r="D18">
+        <v>0.1813849181252538</v>
+      </c>
+      <c r="E18">
+        <v>1561.365451522274</v>
+      </c>
+      <c r="F18">
+        <v>0.2338863314238202</v>
+      </c>
+      <c r="G18">
+        <v>2013.298797071253</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Engst</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0.1269538153708926</v>
+      </c>
+      <c r="C19">
+        <v>126.7615928514345</v>
+      </c>
+      <c r="D19">
+        <v>0.1404838697710738</v>
+      </c>
+      <c r="E19">
+        <v>140.271161209998</v>
+      </c>
+      <c r="F19">
+        <v>0.1846235359614453</v>
+      </c>
+      <c r="G19">
+        <v>184.3439949241784</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rodgers</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.1131888439557885</v>
+      </c>
+      <c r="C20">
+        <v>85.22800876386319</v>
+      </c>
+      <c r="D20">
+        <v>0.1064294095746622</v>
+      </c>
+      <c r="E20">
+        <v>80.1383452198269</v>
+      </c>
+      <c r="F20">
+        <v>0.1472885487550049</v>
+      </c>
+      <c r="G20">
+        <v>110.9041252246687</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Carpenter</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.05813694035366907</v>
+      </c>
+      <c r="C21">
+        <v>148.1856392276812</v>
+      </c>
+      <c r="D21">
+        <v>0.05422082239673246</v>
+      </c>
+      <c r="E21">
+        <v>138.2038197647134</v>
+      </c>
+      <c r="F21">
+        <v>0.0716273246754722</v>
+      </c>
+      <c r="G21">
+        <v>182.5713707779196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>0.2920008937579814</v>
+      </c>
+      <c r="C22">
+        <v>398.7559287180899</v>
+      </c>
+      <c r="D22">
+        <v>0.2566406004377422</v>
+      </c>
+      <c r="E22">
+        <v>350.4679717149765</v>
+      </c>
+      <c r="F22">
+        <v>0.3638820583364895</v>
+      </c>
+      <c r="G22">
+        <v>496.9167260018049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Collmer</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.1484160505847538</v>
+      </c>
+      <c r="C23">
+        <v>313.8281004821332</v>
+      </c>
+      <c r="D23">
+        <v>0.1358008790848121</v>
+      </c>
+      <c r="E23">
+        <v>287.153119619317</v>
+      </c>
+      <c r="F23">
+        <v>0.1743171852809679</v>
+      </c>
+      <c r="G23">
+        <v>368.5964619229527</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Vesa</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>0.1157220086196206</v>
+      </c>
+      <c r="C24">
+        <v>228.9343432743368</v>
+      </c>
+      <c r="D24">
+        <v>0.1039744800066348</v>
+      </c>
+      <c r="E24">
+        <v>205.6940557941005</v>
+      </c>
+      <c r="F24">
+        <v>0.1481481464519172</v>
+      </c>
+      <c r="G24">
+        <v>293.0833902716191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Conley</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>0.06574328930654251</v>
+      </c>
+      <c r="C25">
+        <v>464.6804301822413</v>
+      </c>
+      <c r="D25">
+        <v>0.0681415760588709</v>
+      </c>
+      <c r="E25">
+        <v>481.6317712472742</v>
+      </c>
+      <c r="F25">
+        <v>0.09375002057363963</v>
+      </c>
+      <c r="G25">
+        <v>662.6349297283722</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hahn</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>0.170321994154285</v>
+      </c>
+      <c r="C26">
+        <v>396.2950644383396</v>
+      </c>
+      <c r="D26">
+        <v>0.1570317314829167</v>
+      </c>
+      <c r="E26">
+        <v>365.3720733830482</v>
+      </c>
+      <c r="F26">
+        <v>0.1991414596398531</v>
+      </c>
+      <c r="G26">
+        <v>463.3504790275799</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Marks</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0.09629196604539006</v>
+      </c>
+      <c r="C27">
+        <v>187.3279202378174</v>
+      </c>
+      <c r="D27">
+        <v>0.07284871553039264</v>
+      </c>
+      <c r="E27">
+        <v>141.7210483154131</v>
+      </c>
+      <c r="F27">
+        <v>0.1186956328856564</v>
+      </c>
+      <c r="G27">
+        <v>230.9123695667442</v>
       </c>
     </row>
   </sheetData>
